--- a/P_spaceInvader/m-planification-jnltrav_YagoIglesiasRodriguez.xlsx
+++ b/P_spaceInvader/m-planification-jnltrav_YagoIglesiasRodriguez.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw17kto\Desktop\Programmation\P_Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw17kto\Desktop\Programmation\Module-226\P_spaceInvader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA1F47E-8816-48DD-BC6B-E8B8697F4C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5307A1-FE1D-43E4-9BD4-B17DCB846EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="102">
   <si>
     <t>Module :</t>
   </si>
@@ -329,6 +329,51 @@
   </si>
   <si>
     <t>Essayer de faire bouger le missile verticalement dans la méthode Update afin de tirer  avec le vaiseau</t>
+  </si>
+  <si>
+    <t>dans la classe missil j'ai rajouter la psosition du vaisseau sur x et y dans la méthode Update affin de pouvoir tirer un missile par rapport a la position du vaiseau, ainsi que effacer la position precedante pour pas avoir a chaque fois la ligne complete du missile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalise après le Test pratique </t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Verifier que c'est possible de detruir les enemis des blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifier l'avancer du programme et completer le rapport </t>
+  </si>
+  <si>
+    <t>Verifier le cahier des charges pour être a jour</t>
+  </si>
+  <si>
+    <t>Verifier que le compteur de points fonctionne en detruisant un ennemi et l'afficher pendant le programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completer le rapport avec les difficultes rencontres et tout observation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">commencer les test unitaires </t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuer les tests unitaires </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyser le projet par rapport au cahier des charges </t>
+  </si>
+  <si>
+    <t>Continuer le rapport</t>
+  </si>
+  <si>
+    <t>Planif</t>
+  </si>
+  <si>
+    <t>Completer la planification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerer la collision pour le missile, il fallais precisser que une fois le missile attaint la hauteur maximal alors on lui donne une vie a 0 et dans notre méthode Update alors on affiche rien </t>
   </si>
 </sst>
 </file>
@@ -968,7 +1013,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1233,6 +1278,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,10 +1296,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1966,7 +2015,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2182,10 +2231,10 @@
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="94"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
@@ -2287,7 +2336,9 @@
       <c r="B27" s="79">
         <v>7</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="70" t="s">
+        <v>89</v>
+      </c>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -2579,7 +2630,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"ETML&amp;C&amp;"-,Normal"Planification&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"-,Normal"&amp;D - GGZ&amp;C&amp;"-,Normal"&amp;F - &amp;A&amp;R&amp;"-,Normal"Page &amp;P/&amp;N</oddFooter>
@@ -2590,27 +2641,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2640,27 +2691,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2699,7 +2750,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -2708,7 +2759,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="96"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -3056,8 +3107,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4370,21 +4421,39 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="9"/>
+      <c r="A143" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B143" s="4">
+        <v>4</v>
+      </c>
+      <c r="C143" s="93" t="s">
+        <v>82</v>
+      </c>
       <c r="D143" s="9"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="10"/>
+      <c r="A144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2</v>
+      </c>
+      <c r="C144" s="94" t="s">
+        <v>90</v>
+      </c>
       <c r="D144" s="10"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="10"/>
+      <c r="A145" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B145" s="2">
+        <v>6</v>
+      </c>
+      <c r="C145" s="94" t="s">
+        <v>91</v>
+      </c>
       <c r="D145" s="10"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4435,7 +4504,7 @@
       </c>
       <c r="B153" s="12">
         <f>SUM(B143:B152)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C153" s="86" t="s">
         <v>33</v>
@@ -4473,27 +4542,51 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="9"/>
+      <c r="A157" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" s="4">
+        <v>2</v>
+      </c>
+      <c r="C157" s="93" t="s">
+        <v>92</v>
+      </c>
       <c r="D157" s="9"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="10"/>
+    <row r="158" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158" s="2">
+        <v>6</v>
+      </c>
+      <c r="C158" s="94" t="s">
+        <v>93</v>
+      </c>
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="10"/>
+      <c r="A159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2</v>
+      </c>
+      <c r="C159" s="94" t="s">
+        <v>95</v>
+      </c>
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="10"/>
+      <c r="A160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="D160" s="10"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4538,7 +4631,7 @@
       </c>
       <c r="B167" s="12">
         <f>SUM(B157:B166)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C167" s="86" t="s">
         <v>33</v>
@@ -4576,21 +4669,39 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="9"/>
+      <c r="A171" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B171" s="4">
+        <v>6</v>
+      </c>
+      <c r="C171" s="93" t="s">
+        <v>96</v>
+      </c>
       <c r="D171" s="9"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="10"/>
+      <c r="A172" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" s="2">
+        <v>3</v>
+      </c>
+      <c r="C172" s="94" t="s">
+        <v>97</v>
+      </c>
       <c r="D172" s="10"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="10"/>
+      <c r="A173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" s="2">
+        <v>3</v>
+      </c>
+      <c r="C173" s="94" t="s">
+        <v>98</v>
+      </c>
       <c r="D173" s="10"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,7 +4752,7 @@
       </c>
       <c r="B181" s="12">
         <f>SUM(B171:B180)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C181" s="86" t="s">
         <v>33</v>
@@ -5647,8 +5758,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6794,7 +6905,7 @@
       <c r="B136" s="4">
         <v>12</v>
       </c>
-      <c r="C136" s="97" t="s">
+      <c r="C136" s="93" t="s">
         <v>86</v>
       </c>
       <c r="D136" s="9"/>
@@ -6931,10 +7042,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="9"/>
+    <row r="155" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" s="4">
+        <v>12</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="D155" s="9"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -7027,7 +7144,7 @@
       </c>
       <c r="B170" s="47">
         <f>SUM(B155:B169)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C170" s="90" t="s">
         <v>33</v>
@@ -7069,22 +7186,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="9"/>
+    <row r="174" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="D174" s="9"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="10"/>
+    <row r="175" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B175" s="4">
+        <v>3</v>
+      </c>
+      <c r="C175" s="93" t="s">
+        <v>87</v>
+      </c>
       <c r="D175" s="10"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="10"/>
+      <c r="C176" s="94"/>
       <c r="D176" s="10"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -7164,8 +7287,8 @@
         <v>22</v>
       </c>
       <c r="B189" s="47">
-        <f>SUM(B174:B188)</f>
-        <v>0</v>
+        <f>SUM(B175:B188)</f>
+        <v>3</v>
       </c>
       <c r="C189" s="90" t="s">
         <v>33</v>
@@ -7189,8 +7312,8 @@
         <v>23</v>
       </c>
       <c r="D191" s="53">
-        <f>$D$172+7</f>
-        <v>45379</v>
+        <f>$D$172+8-7</f>
+        <v>45373</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7208,15 +7331,27 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="9"/>
+      <c r="A193" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B193" s="4">
+        <v>2</v>
+      </c>
+      <c r="C193" s="93" t="s">
+        <v>100</v>
+      </c>
       <c r="D193" s="9"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="10"/>
+    <row r="194" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B194" s="2">
+        <v>3</v>
+      </c>
+      <c r="C194" s="94" t="s">
+        <v>101</v>
+      </c>
       <c r="D194" s="10"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -7303,7 +7438,7 @@
       </c>
       <c r="B208" s="47">
         <f>SUM(B193:B207)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C208" s="90" t="s">
         <v>33</v>
@@ -7328,7 +7463,7 @@
       </c>
       <c r="D210" s="53">
         <f>$D$191+7</f>
-        <v>45386</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7466,7 +7601,7 @@
       </c>
       <c r="D229" s="53">
         <f>$D$210+7</f>
-        <v>45393</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7604,7 +7739,7 @@
       </c>
       <c r="D248" s="53">
         <f>$D$229+7</f>
-        <v>45400</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7742,7 +7877,7 @@
       </c>
       <c r="D267" s="53">
         <f>$D$248+7</f>
-        <v>45407</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7880,7 +8015,7 @@
       </c>
       <c r="D286" s="53">
         <f>$D$267+7</f>
-        <v>45414</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8018,7 +8153,7 @@
       </c>
       <c r="D305" s="53">
         <f>$D$286+7</f>
-        <v>45421</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8156,7 +8291,7 @@
       </c>
       <c r="D324" s="53">
         <f>$D$305+7</f>
-        <v>45428</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8294,7 +8429,7 @@
       </c>
       <c r="D343" s="53">
         <f>$D$324+7</f>
-        <v>45435</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8431,14 +8566,14 @@
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B55 B60:B74 B79:B93 B98:B112 B117:B131 B136:B150 B155:B169 B174:B188 B193:B207 B212:B226 B231:B245 B250:B264 B269:B283 B288:B302 B307:B321 B326:B340 B345:B359" xr:uid="{1AE082D5-CBE5-45AA-9F89-C5739C02E4A3}">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B55 B60:B74 B79:B93 B98:B112 B117:B131 B136:B150 B155:B169 B193:B207 B212:B226 B231:B245 B250:B264 B269:B283 B288:B302 B307:B321 B326:B340 B345:B359 B175:B188" xr:uid="{1AE082D5-CBE5-45AA-9F89-C5739C02E4A3}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B56 B75 B94 B113 B132 B151 B170 B189 B208 B227 B246 B265 B284 B303 B322 B341 B360" xr:uid="{19F2721C-7091-482A-ACAA-9C883D9C92FB}">
       <formula1>0</formula1>
       <formula2>NbPerWeek * NbQuartPer</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A55 A60:A74 A79:A93 A98:A112 A117:A131 A136:A150 A155:A169 A174:A188 A193:A207 A212:A226 A231:A245 A250:A264 A269:A283 A288:A302 A307:A321 A326:A340 A345:A359" xr:uid="{86CDBECA-4AAC-4231-B642-EA943CA9E84C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A55 A60:A74 A79:A93 A98:A112 A117:A131 A136:A150 A155:A169 A193:A207 A212:A226 A231:A245 A250:A264 A269:A283 A288:A302 A307:A321 A326:A340 A345:A359 A175:A188" xr:uid="{86CDBECA-4AAC-4231-B642-EA943CA9E84C}">
       <formula1>lstTasks</formula1>
     </dataValidation>
   </dataValidations>
@@ -8477,6 +8612,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a2a625e4713a1206e22a4c67b5bce77a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44987950040cbf76ec9c25f294fcc9dd" ns2:_="" ns3:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8697,27 +8852,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B433C9A-8A3A-4D69-955C-F3F07BFE315A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8734,23 +8888,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>